--- a/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LLM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Question-results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="speed" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="110">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -774,6 +775,39 @@
   </si>
   <si>
     <t xml:space="preserve">Success-rate (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jupyter notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanna results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-phi3-chromadb-sqlite-test-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2024-08-03 01:47:36.352596] test on 'ducklover1' with 'phi3' LLM took : 1185.90 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/gongai/projects/1_Biz/vanna/note_book/gongai/test-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-codegemma-chromadb-sqlite-test-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2024-08-03 01:52:21.684227] test on 'ducklover1' with 'codegemma' LLM took : 1975.42 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-gemma2-2b-chromadb-sqlite-test-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-gemma2-chromadb-sqlite-test-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test running on 'ducklover1' with 'gemma2' LLM took : 2267.60 sec</t>
   </si>
 </sst>
 </file>
@@ -1088,57 +1122,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF729FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBBE33D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF8000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF972F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1217,7 +1200,7 @@
       <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.94"/>
@@ -1532,7 +1515,7 @@
   </sheetPr>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -1540,7 +1523,7 @@
       <selection pane="bottomRight" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="50.43"/>
@@ -1555,7 +1538,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,4 +2613,76 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="116">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -808,6 +808,24 @@
   </si>
   <si>
     <t xml:space="preserve">test running on 'ducklover1' with 'gemma2' LLM took : 2267.60 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-mistral-chromadb-sqlite-test-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test running on 'ducklover1' with 'mistral' LLM took : 2289.66 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-mistral-nemo-chromadb-sqlite-test-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test running on 'ducklover1' with 'mistral-nemo' LLM took : 2644.15 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ollama-phi3-14b-chromadb-sqlite-test-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test running on 'ducklover1' with 'phi3:14b' LLM took : 3844.80 sec</t>
   </si>
 </sst>
 </file>
@@ -2620,15 +2638,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.1"/>
   </cols>
@@ -2674,6 +2692,30 @@
       </c>
       <c r="B5" s="0" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
+++ b/lesson-18-ai/vanna/docs/LLM-evaluations-2.xlsx
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0">
+    <comment ref="Q6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,33 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">SQL ok, plotly not good</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q7" authorId="0">
+    <comment ref="Q10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,12 +256,38 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">SQL ok, plotly not good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">SQL ok, not plotly
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0">
+    <comment ref="R14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q21" authorId="0">
+    <comment ref="R21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0">
+    <comment ref="T16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="U7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0">
+    <comment ref="U8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0">
+    <comment ref="U11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -366,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0">
+    <comment ref="U12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0">
+    <comment ref="U19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T21" authorId="0">
+    <comment ref="U21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U10" authorId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X6" authorId="0">
+    <comment ref="Y6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="103">
   <si>
     <t xml:space="preserve">Model Name</t>
   </si>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">gpt-3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">gpt-4o-mini</t>
+    <t xml:space="preserve">Gpt -4o-mini</t>
   </si>
   <si>
     <t xml:space="preserve">Claude-3.5-sonnet</t>
@@ -683,7 +683,19 @@
     <t xml:space="preserve">Gemini-1-.5-pro</t>
   </si>
   <si>
-    <t xml:space="preserve">gemma2</t>
+    <t xml:space="preserve">Llama 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llama 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code gemma</t>
   </si>
   <si>
     <t xml:space="preserve">starcoder2</t>
@@ -866,7 +878,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -951,6 +963,12 @@
         <bgColor rgb="FFFFD428"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6D"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -986,7 +1004,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1031,8 +1049,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1079,6 +1097,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,61 +1110,10 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF729FCF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBBE33D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF8000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF972F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1159,7 +1130,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFFF3737"/>
-      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1176,7 +1147,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD4EA6B"/>
-      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFFFFF6D"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1217,7 +1188,7 @@
       <selection pane="bottomRight" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.94"/>
@@ -1530,17 +1501,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
-      <selection pane="bottomRight" activeCell="R27" activeCellId="0" sqref="R27"/>
+      <selection pane="bottomLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="44.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="50.43"/>
@@ -1550,12 +1521,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="1" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="3" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="7.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="3" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="3" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="3" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="3" width="13.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,987 +1562,1062 @@
         <v>67</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="U1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="X1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K27" s="22" t="n">
         <f aca="false">(24-0)/24*100</f>
@@ -2592,33 +2639,37 @@
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="P27" s="22" t="n">
+      <c r="P27" s="23" t="n">
+        <f aca="false">(24-5)/24*100</f>
+        <v>79.1666666666667</v>
+      </c>
+      <c r="Q27" s="22" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="Q27" s="22" t="n">
+      <c r="R27" s="22" t="n">
         <f aca="false">(24-2)/24*100</f>
         <v>91.6666666666667</v>
       </c>
-      <c r="R27" s="22" t="n">
+      <c r="S27" s="22" t="n">
         <f aca="false">(24-1)/24*100</f>
         <v>95.8333333333333</v>
       </c>
-      <c r="S27" s="22" t="n">
+      <c r="T27" s="22" t="n">
         <f aca="false">(24-4)/24*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="T27" s="22" t="n">
+      <c r="U27" s="22" t="n">
         <f aca="false">(24-3)/24*100</f>
         <v>87.5</v>
       </c>
-      <c r="U27" s="22" t="n">
+      <c r="V27" s="22" t="n">
         <f aca="false">(24-7)/24*100</f>
         <v>70.8333333333333</v>
       </c>
-      <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
